--- a/resultats_prim.xlsx
+++ b/resultats_prim.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF2BAEE-C5B0-594D-9D0A-16876E96EB1E}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5830174D-7B15-844D-934A-923EE547160A}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_prim_0912" sheetId="1" r:id="rId1"/>
     <sheet name="t2_prim_1612" sheetId="2" r:id="rId2"/>
+    <sheet name="t3_prim_2012" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="973">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2614,6 +2615,348 @@
   </si>
   <si>
     <t>21 min 6 s</t>
+  </si>
+  <si>
+    <t>9 min 47 s</t>
+  </si>
+  <si>
+    <t>28 min 15 s</t>
+  </si>
+  <si>
+    <t>4 min 17 s</t>
+  </si>
+  <si>
+    <t>ines.valentin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>19 min 42 s</t>
+  </si>
+  <si>
+    <t>15 min 13 s</t>
+  </si>
+  <si>
+    <t>2 min 32 s</t>
+  </si>
+  <si>
+    <t>6 min 58 s</t>
+  </si>
+  <si>
+    <t>22 min 43 s</t>
+  </si>
+  <si>
+    <t>Sebastien</t>
+  </si>
+  <si>
+    <t>sebastien.dubois@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 19 s</t>
+  </si>
+  <si>
+    <t>25 min 24 s</t>
+  </si>
+  <si>
+    <t>4 min 14 s</t>
+  </si>
+  <si>
+    <t>KIMOU</t>
+  </si>
+  <si>
+    <t>Illary Marie-Madeleine Maguylle</t>
+  </si>
+  <si>
+    <t>illarymarie-madeleinemaguylle.kimou@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 41 s</t>
+  </si>
+  <si>
+    <t>7 min 26 s</t>
+  </si>
+  <si>
+    <t>18 min 23 s</t>
+  </si>
+  <si>
+    <t>3 min 28 s</t>
+  </si>
+  <si>
+    <t>11 min 21 s</t>
+  </si>
+  <si>
+    <t>14 min 4 s</t>
+  </si>
+  <si>
+    <t>9 min 31 s</t>
+  </si>
+  <si>
+    <t>8 min 32 s</t>
+  </si>
+  <si>
+    <t>8 min 29 s</t>
+  </si>
+  <si>
+    <t>2 min 10 s</t>
+  </si>
+  <si>
+    <t>6 min 49 s</t>
+  </si>
+  <si>
+    <t>10 min 52 s</t>
+  </si>
+  <si>
+    <t>14 min 41 s</t>
+  </si>
+  <si>
+    <t>5 min 1 s</t>
+  </si>
+  <si>
+    <t>GAMBIER</t>
+  </si>
+  <si>
+    <t>juliette.gambier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>27 min 53 s</t>
+  </si>
+  <si>
+    <t>7 min 6 s</t>
+  </si>
+  <si>
+    <t>10 min 39 s</t>
+  </si>
+  <si>
+    <t>BERTEAU</t>
+  </si>
+  <si>
+    <t>thomas.berteau@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 32 s</t>
+  </si>
+  <si>
+    <t>SAMPERS</t>
+  </si>
+  <si>
+    <t>Lucile</t>
+  </si>
+  <si>
+    <t>lucile.sampers@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>PORTEMAN</t>
+  </si>
+  <si>
+    <t>nathan.porteman@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>28 min 34 s</t>
+  </si>
+  <si>
+    <t>12 min 59 s</t>
+  </si>
+  <si>
+    <t>36 s</t>
+  </si>
+  <si>
+    <t>8 min 53 s</t>
+  </si>
+  <si>
+    <t>DUPUIT</t>
+  </si>
+  <si>
+    <t>alban.dupuit@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>34 min 19 s</t>
+  </si>
+  <si>
+    <t>3 min 10 s</t>
+  </si>
+  <si>
+    <t>11 min 24 s</t>
+  </si>
+  <si>
+    <t>18 min 50 s</t>
+  </si>
+  <si>
+    <t>10 min 46 s</t>
+  </si>
+  <si>
+    <t>18 min 48 s</t>
+  </si>
+  <si>
+    <t>29 min 58 s</t>
+  </si>
+  <si>
+    <t>8 min 47 s</t>
+  </si>
+  <si>
+    <t>7 min 47 s</t>
+  </si>
+  <si>
+    <t>14 min 22 s</t>
+  </si>
+  <si>
+    <t>3 min 23 s</t>
+  </si>
+  <si>
+    <t>ARNOULT</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>esteban.arnoult@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>19 min 22 s</t>
+  </si>
+  <si>
+    <t>22 min 18 s</t>
+  </si>
+  <si>
+    <t>LE CAM</t>
+  </si>
+  <si>
+    <t>eloise.lecam@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 52 s</t>
+  </si>
+  <si>
+    <t>14 min 20 s</t>
+  </si>
+  <si>
+    <t>11 min 8 s</t>
+  </si>
+  <si>
+    <t>4 min 15 s</t>
+  </si>
+  <si>
+    <t>8 min 10 s</t>
+  </si>
+  <si>
+    <t>LESAING</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>constance.lesaing@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 50 s</t>
+  </si>
+  <si>
+    <t>8 min 35 s</t>
+  </si>
+  <si>
+    <t>ROUGEGREZ</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>tom.rougegrez@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>15 min 56 s</t>
+  </si>
+  <si>
+    <t>11 min 46 s</t>
+  </si>
+  <si>
+    <t>3 min 4 s</t>
+  </si>
+  <si>
+    <t>38 min 50 s</t>
+  </si>
+  <si>
+    <t>4 min 11 s</t>
+  </si>
+  <si>
+    <t>5 min 49 s</t>
+  </si>
+  <si>
+    <t>2 min 16 s</t>
+  </si>
+  <si>
+    <t>13 min 48 s</t>
+  </si>
+  <si>
+    <t>18 min 45 s</t>
+  </si>
+  <si>
+    <t>10 min 14 s</t>
+  </si>
+  <si>
+    <t>7 min 23 s</t>
+  </si>
+  <si>
+    <t>14 min 51 s</t>
+  </si>
+  <si>
+    <t>3 min 55 s</t>
+  </si>
+  <si>
+    <t>8 min 3 s</t>
+  </si>
+  <si>
+    <t>TROLLE</t>
+  </si>
+  <si>
+    <t>Remi</t>
+  </si>
+  <si>
+    <t>remi.trolle@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>10 min 17 s</t>
+  </si>
+  <si>
+    <t>FAUCHER</t>
+  </si>
+  <si>
+    <t>martin.faucher@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>18 min 44 s</t>
+  </si>
+  <si>
+    <t>20 min 15 s</t>
+  </si>
+  <si>
+    <t>OLIVIER</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>camille.olivier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>16 min 56 s</t>
+  </si>
+  <si>
+    <t>3 min 29 s</t>
+  </si>
+  <si>
+    <t>12 min 25 s</t>
+  </si>
+  <si>
+    <t>15 min 20 s</t>
+  </si>
+  <si>
+    <t>12 min 3 s</t>
+  </si>
+  <si>
+    <t>2 min 5 s</t>
+  </si>
+  <si>
+    <t>7 min 5 s</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +3002,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9047,7 +9390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1425B293-D16C-C340-884E-DE2EFD2C56AB}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
@@ -9111,7 +9454,7 @@
       <c r="E2" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
@@ -9153,7 +9496,7 @@
       <c r="E3" t="s">
         <v>552</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
@@ -9195,7 +9538,7 @@
       <c r="E4" t="s">
         <v>446</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>20</v>
       </c>
       <c r="G4" t="s">
@@ -9237,7 +9580,7 @@
       <c r="E5" t="s">
         <v>556</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>16.5</v>
       </c>
       <c r="G5" t="s">
@@ -9279,7 +9622,7 @@
       <c r="E6" t="s">
         <v>557</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>16.5</v>
       </c>
       <c r="G6" t="s">
@@ -9321,7 +9664,7 @@
       <c r="E7" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>16</v>
       </c>
       <c r="G7" t="s">
@@ -9363,7 +9706,7 @@
       <c r="E8" t="s">
         <v>558</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>16</v>
       </c>
       <c r="G8" t="s">
@@ -9405,7 +9748,7 @@
       <c r="E9" t="s">
         <v>561</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>16</v>
       </c>
       <c r="G9" t="s">
@@ -9447,7 +9790,7 @@
       <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>14.5</v>
       </c>
       <c r="G10" t="s">
@@ -9489,7 +9832,7 @@
       <c r="E11" t="s">
         <v>564</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>14</v>
       </c>
       <c r="G11" t="s">
@@ -9531,7 +9874,7 @@
       <c r="E12" t="s">
         <v>565</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>14</v>
       </c>
       <c r="G12" t="s">
@@ -9573,7 +9916,7 @@
       <c r="E13" t="s">
         <v>566</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>14</v>
       </c>
       <c r="G13" t="s">
@@ -9615,7 +9958,7 @@
       <c r="E14" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>13.5</v>
       </c>
       <c r="G14" t="s">
@@ -9657,7 +10000,7 @@
       <c r="E15" t="s">
         <v>568</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>13.5</v>
       </c>
       <c r="G15" t="s">
@@ -9699,7 +10042,7 @@
       <c r="E16" t="s">
         <v>569</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>12.5</v>
       </c>
       <c r="G16" t="s">
@@ -9741,7 +10084,7 @@
       <c r="E17" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>12.5</v>
       </c>
       <c r="G17" t="s">
@@ -9783,7 +10126,7 @@
       <c r="E18" t="s">
         <v>573</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>12.5</v>
       </c>
       <c r="G18" t="s">
@@ -9825,7 +10168,7 @@
       <c r="E19" t="s">
         <v>574</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>12.5</v>
       </c>
       <c r="G19" t="s">
@@ -9867,7 +10210,7 @@
       <c r="E20" t="s">
         <v>575</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>12.5</v>
       </c>
       <c r="G20" t="s">
@@ -9909,7 +10252,7 @@
       <c r="E21" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>12.5</v>
       </c>
       <c r="G21" t="s">
@@ -9951,7 +10294,7 @@
       <c r="E22" t="s">
         <v>580</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>12.5</v>
       </c>
       <c r="G22" t="s">
@@ -9993,7 +10336,7 @@
       <c r="E23" t="s">
         <v>581</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>11.5</v>
       </c>
       <c r="G23" t="s">
@@ -10035,7 +10378,7 @@
       <c r="E24" t="s">
         <v>584</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>11.5</v>
       </c>
       <c r="G24" t="s">
@@ -10077,7 +10420,7 @@
       <c r="E25" t="s">
         <v>588</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>11</v>
       </c>
       <c r="G25" t="s">
@@ -10119,7 +10462,7 @@
       <c r="E26" t="s">
         <v>589</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>10.5</v>
       </c>
       <c r="G26" t="s">
@@ -10161,7 +10504,7 @@
       <c r="E27" t="s">
         <v>593</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>10.5</v>
       </c>
       <c r="G27" t="s">
@@ -10203,7 +10546,7 @@
       <c r="E28" t="s">
         <v>594</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>10.5</v>
       </c>
       <c r="G28" t="s">
@@ -10245,7 +10588,7 @@
       <c r="E29" t="s">
         <v>598</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>10.5</v>
       </c>
       <c r="G29" t="s">
@@ -10287,7 +10630,7 @@
       <c r="E30" t="s">
         <v>599</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>10.5</v>
       </c>
       <c r="G30" t="s">
@@ -10329,7 +10672,7 @@
       <c r="E31" t="s">
         <v>600</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>10.5</v>
       </c>
       <c r="G31" t="s">
@@ -10371,7 +10714,7 @@
       <c r="E32" t="s">
         <v>601</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>10.5</v>
       </c>
       <c r="G32" t="s">
@@ -10413,7 +10756,7 @@
       <c r="E33" t="s">
         <v>348</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
@@ -10455,7 +10798,7 @@
       <c r="E34" t="s">
         <v>476</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
@@ -10497,7 +10840,7 @@
       <c r="E35" t="s">
         <v>605</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
@@ -10539,7 +10882,7 @@
       <c r="E36" t="s">
         <v>606</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
@@ -10581,7 +10924,7 @@
       <c r="E37" t="s">
         <v>607</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
@@ -10623,7 +10966,7 @@
       <c r="E38" t="s">
         <v>611</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
@@ -10665,7 +11008,7 @@
       <c r="E39" t="s">
         <v>612</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -10707,7 +11050,7 @@
       <c r="E40" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
@@ -10749,7 +11092,7 @@
       <c r="E41" t="s">
         <v>613</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
@@ -10791,7 +11134,7 @@
       <c r="E42" t="s">
         <v>614</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
@@ -10833,7 +11176,7 @@
       <c r="E43" t="s">
         <v>615</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
@@ -10875,7 +11218,7 @@
       <c r="E44" t="s">
         <v>616</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>9.5</v>
       </c>
       <c r="G44" t="s">
@@ -10917,7 +11260,7 @@
       <c r="E45" t="s">
         <v>619</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>9</v>
       </c>
       <c r="G45" t="s">
@@ -10959,7 +11302,7 @@
       <c r="E46" t="s">
         <v>620</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>9</v>
       </c>
       <c r="G46" t="s">
@@ -11001,7 +11344,7 @@
       <c r="E47" t="s">
         <v>623</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" t="s">
@@ -11043,7 +11386,7 @@
       <c r="E48" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>8</v>
       </c>
       <c r="G48" t="s">
@@ -11085,7 +11428,7 @@
       <c r="E49" t="s">
         <v>521</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>8</v>
       </c>
       <c r="G49" t="s">
@@ -11127,7 +11470,7 @@
       <c r="E50" t="s">
         <v>630</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>8</v>
       </c>
       <c r="G50" t="s">
@@ -11169,7 +11512,7 @@
       <c r="E51" t="s">
         <v>634</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>8</v>
       </c>
       <c r="G51" t="s">
@@ -11211,7 +11554,7 @@
       <c r="E52" t="s">
         <v>635</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <v>7.5</v>
       </c>
       <c r="G52" t="s">
@@ -11253,7 +11596,7 @@
       <c r="E53" t="s">
         <v>636</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>7.5</v>
       </c>
       <c r="G53" t="s">
@@ -11295,7 +11638,7 @@
       <c r="E54" t="s">
         <v>558</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>7.5</v>
       </c>
       <c r="G54" t="s">
@@ -11337,7 +11680,7 @@
       <c r="E55" t="s">
         <v>640</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>7.5</v>
       </c>
       <c r="G55" t="s">
@@ -11379,7 +11722,7 @@
       <c r="E56" t="s">
         <v>644</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>7.5</v>
       </c>
       <c r="G56" t="s">
@@ -11421,7 +11764,7 @@
       <c r="E57" t="s">
         <v>645</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>7.5</v>
       </c>
       <c r="G57" t="s">
@@ -11463,7 +11806,7 @@
       <c r="E58" t="s">
         <v>648</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
@@ -11505,7 +11848,7 @@
       <c r="E59" t="s">
         <v>649</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
@@ -11547,7 +11890,7 @@
       <c r="E60" t="s">
         <v>650</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
@@ -11589,7 +11932,7 @@
       <c r="E61" t="s">
         <v>651</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>6.5</v>
       </c>
       <c r="G61" t="s">
@@ -11631,7 +11974,7 @@
       <c r="E62" t="s">
         <v>652</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>6.5</v>
       </c>
       <c r="G62" t="s">
@@ -11673,7 +12016,7 @@
       <c r="E63" t="s">
         <v>656</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>6.5</v>
       </c>
       <c r="G63" t="s">
@@ -11715,7 +12058,7 @@
       <c r="E64" t="s">
         <v>660</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <v>6.5</v>
       </c>
       <c r="G64" t="s">
@@ -11757,7 +12100,7 @@
       <c r="E65" t="s">
         <v>664</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <v>6.5</v>
       </c>
       <c r="G65" t="s">
@@ -11799,7 +12142,7 @@
       <c r="E66" t="s">
         <v>667</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66">
         <v>6.5</v>
       </c>
       <c r="G66" t="s">
@@ -11841,7 +12184,7 @@
       <c r="E67" t="s">
         <v>670</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>6.5</v>
       </c>
       <c r="G67" t="s">
@@ -11883,7 +12226,7 @@
       <c r="E68" t="s">
         <v>671</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <v>6.5</v>
       </c>
       <c r="G68" t="s">
@@ -11925,7 +12268,7 @@
       <c r="E69" t="s">
         <v>672</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69">
         <v>6.5</v>
       </c>
       <c r="G69" t="s">
@@ -11967,7 +12310,7 @@
       <c r="E70" t="s">
         <v>673</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70">
         <v>6.5</v>
       </c>
       <c r="G70" t="s">
@@ -12009,7 +12352,7 @@
       <c r="E71" t="s">
         <v>674</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71">
         <v>6.5</v>
       </c>
       <c r="G71" t="s">
@@ -12051,7 +12394,7 @@
       <c r="E72" t="s">
         <v>677</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <v>6.5</v>
       </c>
       <c r="G72" t="s">
@@ -12093,7 +12436,7 @@
       <c r="E73" t="s">
         <v>678</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73">
         <v>6.5</v>
       </c>
       <c r="G73" t="s">
@@ -12135,7 +12478,7 @@
       <c r="E74" t="s">
         <v>679</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>6.5</v>
       </c>
       <c r="G74" t="s">
@@ -12177,7 +12520,7 @@
       <c r="E75" t="s">
         <v>680</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75">
         <v>6.5</v>
       </c>
       <c r="G75" t="s">
@@ -12219,7 +12562,7 @@
       <c r="E76" t="s">
         <v>684</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76">
         <v>6.5</v>
       </c>
       <c r="G76" t="s">
@@ -12261,7 +12604,7 @@
       <c r="E77" t="s">
         <v>687</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77">
         <v>6.5</v>
       </c>
       <c r="G77" t="s">
@@ -12303,7 +12646,7 @@
       <c r="E78" t="s">
         <v>691</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78">
         <v>6.5</v>
       </c>
       <c r="G78" t="s">
@@ -12345,7 +12688,7 @@
       <c r="E79" t="s">
         <v>692</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79">
         <v>6.5</v>
       </c>
       <c r="G79" t="s">
@@ -12387,7 +12730,7 @@
       <c r="E80" t="s">
         <v>652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80">
         <v>6.5</v>
       </c>
       <c r="G80" t="s">
@@ -12429,7 +12772,7 @@
       <c r="E81" t="s">
         <v>693</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81">
         <v>6.5</v>
       </c>
       <c r="G81" t="s">
@@ -12471,7 +12814,7 @@
       <c r="E82" t="s">
         <v>694</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82">
         <v>6</v>
       </c>
       <c r="G82" t="s">
@@ -12513,7 +12856,7 @@
       <c r="E83" t="s">
         <v>698</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83">
         <v>6</v>
       </c>
       <c r="G83" t="s">
@@ -12555,7 +12898,7 @@
       <c r="E84" t="s">
         <v>701</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84">
         <v>6</v>
       </c>
       <c r="G84" t="s">
@@ -12597,7 +12940,7 @@
       <c r="E85" t="s">
         <v>705</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <v>6</v>
       </c>
       <c r="G85" t="s">
@@ -12639,7 +12982,7 @@
       <c r="E86" t="s">
         <v>693</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86">
         <v>6</v>
       </c>
       <c r="G86" t="s">
@@ -12681,7 +13024,7 @@
       <c r="E87" t="s">
         <v>708</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87">
         <v>6</v>
       </c>
       <c r="G87" t="s">
@@ -12723,7 +13066,7 @@
       <c r="E88" t="s">
         <v>709</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88">
         <v>5.5</v>
       </c>
       <c r="G88" t="s">
@@ -12765,7 +13108,7 @@
       <c r="E89" t="s">
         <v>710</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89">
         <v>5.5</v>
       </c>
       <c r="G89" t="s">
@@ -12807,7 +13150,7 @@
       <c r="E90" t="s">
         <v>714</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90">
         <v>5.5</v>
       </c>
       <c r="G90" t="s">
@@ -12849,7 +13192,7 @@
       <c r="E91" t="s">
         <v>715</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91">
         <v>5.5</v>
       </c>
       <c r="G91" t="s">
@@ -12891,7 +13234,7 @@
       <c r="E92" t="s">
         <v>716</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>5.5</v>
       </c>
       <c r="G92" t="s">
@@ -12933,7 +13276,7 @@
       <c r="E93" t="s">
         <v>573</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93">
         <v>5.5</v>
       </c>
       <c r="G93" t="s">
@@ -12975,7 +13318,7 @@
       <c r="E94" t="s">
         <v>719</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94">
         <v>5</v>
       </c>
       <c r="G94" t="s">
@@ -13017,7 +13360,7 @@
       <c r="E95" t="s">
         <v>723</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95">
         <v>4.5</v>
       </c>
       <c r="G95" t="s">
@@ -13059,7 +13402,7 @@
       <c r="E96" t="s">
         <v>724</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96">
         <v>4.5</v>
       </c>
       <c r="G96" t="s">
@@ -13101,7 +13444,7 @@
       <c r="E97" t="s">
         <v>725</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97">
         <v>4.5</v>
       </c>
       <c r="G97" t="s">
@@ -13143,7 +13486,7 @@
       <c r="E98" t="s">
         <v>726</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98">
         <v>4.5</v>
       </c>
       <c r="G98" t="s">
@@ -13185,7 +13528,7 @@
       <c r="E99" t="s">
         <v>727</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99">
         <v>4.5</v>
       </c>
       <c r="G99" t="s">
@@ -13227,7 +13570,7 @@
       <c r="E100" t="s">
         <v>728</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100">
         <v>4.5</v>
       </c>
       <c r="G100" t="s">
@@ -13269,7 +13612,7 @@
       <c r="E101" t="s">
         <v>729</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101">
         <v>4.5</v>
       </c>
       <c r="G101" t="s">
@@ -13311,7 +13654,7 @@
       <c r="E102" t="s">
         <v>730</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <v>4.5</v>
       </c>
       <c r="G102" t="s">
@@ -13353,7 +13696,7 @@
       <c r="E103" t="s">
         <v>734</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103">
         <v>4.5</v>
       </c>
       <c r="G103" t="s">
@@ -13395,7 +13738,7 @@
       <c r="E104" t="s">
         <v>735</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104">
         <v>4.5</v>
       </c>
       <c r="G104" t="s">
@@ -13437,7 +13780,7 @@
       <c r="E105" t="s">
         <v>736</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105">
         <v>4.5</v>
       </c>
       <c r="G105" t="s">
@@ -13479,7 +13822,7 @@
       <c r="E106" t="s">
         <v>737</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106">
         <v>4.5</v>
       </c>
       <c r="G106" t="s">
@@ -13521,7 +13864,7 @@
       <c r="E107" t="s">
         <v>741</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107">
         <v>4.5</v>
       </c>
       <c r="G107" t="s">
@@ -13563,7 +13906,7 @@
       <c r="E108" t="s">
         <v>745</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108">
         <v>4</v>
       </c>
       <c r="G108" t="s">
@@ -13605,7 +13948,7 @@
       <c r="E109" t="s">
         <v>746</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109">
         <v>4</v>
       </c>
       <c r="G109" t="s">
@@ -13647,7 +13990,7 @@
       <c r="E110" t="s">
         <v>282</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110">
         <v>4</v>
       </c>
       <c r="G110" t="s">
@@ -13689,7 +14032,7 @@
       <c r="E111" t="s">
         <v>749</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111">
         <v>4</v>
       </c>
       <c r="G111" t="s">
@@ -13731,7 +14074,7 @@
       <c r="E112" t="s">
         <v>750</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112">
         <v>4</v>
       </c>
       <c r="G112" t="s">
@@ -13773,7 +14116,7 @@
       <c r="E113" t="s">
         <v>751</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113">
         <v>4</v>
       </c>
       <c r="G113" t="s">
@@ -13815,7 +14158,7 @@
       <c r="E114" t="s">
         <v>390</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114">
         <v>4</v>
       </c>
       <c r="G114" t="s">
@@ -13857,7 +14200,7 @@
       <c r="E115" t="s">
         <v>755</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115">
         <v>4</v>
       </c>
       <c r="G115" t="s">
@@ -13899,7 +14242,7 @@
       <c r="E116" t="s">
         <v>759</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116">
         <v>4</v>
       </c>
       <c r="G116" t="s">
@@ -13941,7 +14284,7 @@
       <c r="E117" t="s">
         <v>760</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117">
         <v>4</v>
       </c>
       <c r="G117" t="s">
@@ -13983,7 +14326,7 @@
       <c r="E118" t="s">
         <v>761</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118">
         <v>4</v>
       </c>
       <c r="G118" t="s">
@@ -14025,7 +14368,7 @@
       <c r="E119" t="s">
         <v>762</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119">
         <v>4</v>
       </c>
       <c r="G119" t="s">
@@ -14067,7 +14410,7 @@
       <c r="E120" t="s">
         <v>57</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120">
         <v>4</v>
       </c>
       <c r="G120" t="s">
@@ -14109,7 +14452,7 @@
       <c r="E121" t="s">
         <v>766</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121">
         <v>4</v>
       </c>
       <c r="G121" t="s">
@@ -14151,7 +14494,7 @@
       <c r="E122" t="s">
         <v>767</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122">
         <v>3.5</v>
       </c>
       <c r="G122" t="s">
@@ -14193,7 +14536,7 @@
       <c r="E123" t="s">
         <v>770</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123">
         <v>3.5</v>
       </c>
       <c r="G123" t="s">
@@ -14235,7 +14578,7 @@
       <c r="E124" t="s">
         <v>771</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124">
         <v>3.5</v>
       </c>
       <c r="G124" t="s">
@@ -14277,7 +14620,7 @@
       <c r="E125" t="s">
         <v>774</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125">
         <v>2.5</v>
       </c>
       <c r="G125" t="s">
@@ -14319,7 +14662,7 @@
       <c r="E126" t="s">
         <v>777</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126">
         <v>2.5</v>
       </c>
       <c r="G126" t="s">
@@ -14361,7 +14704,7 @@
       <c r="E127" t="s">
         <v>780</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127">
         <v>2.5</v>
       </c>
       <c r="G127" t="s">
@@ -14403,7 +14746,7 @@
       <c r="E128" t="s">
         <v>783</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128">
         <v>2.5</v>
       </c>
       <c r="G128" t="s">
@@ -14445,7 +14788,7 @@
       <c r="E129" t="s">
         <v>787</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129">
         <v>2.5</v>
       </c>
       <c r="G129" t="s">
@@ -14487,7 +14830,7 @@
       <c r="E130" t="s">
         <v>788</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130">
         <v>2.5</v>
       </c>
       <c r="G130" t="s">
@@ -14529,7 +14872,7 @@
       <c r="E131" t="s">
         <v>791</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131">
         <v>2.5</v>
       </c>
       <c r="G131" t="s">
@@ -14571,7 +14914,7 @@
       <c r="E132" t="s">
         <v>262</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132">
         <v>2</v>
       </c>
       <c r="G132" t="s">
@@ -14613,7 +14956,7 @@
       <c r="E133" t="s">
         <v>796</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133">
         <v>2</v>
       </c>
       <c r="G133" t="s">
@@ -14655,7 +14998,7 @@
       <c r="E134" t="s">
         <v>797</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134">
         <v>2</v>
       </c>
       <c r="G134" t="s">
@@ -14697,7 +15040,7 @@
       <c r="E135" t="s">
         <v>801</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135">
         <v>2</v>
       </c>
       <c r="G135" t="s">
@@ -14739,7 +15082,7 @@
       <c r="E136" t="s">
         <v>804</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136">
         <v>2</v>
       </c>
       <c r="G136" t="s">
@@ -14781,7 +15124,7 @@
       <c r="E137" t="s">
         <v>808</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137">
         <v>2</v>
       </c>
       <c r="G137" t="s">
@@ -14823,7 +15166,7 @@
       <c r="E138" t="s">
         <v>809</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138">
         <v>2</v>
       </c>
       <c r="G138" t="s">
@@ -14865,7 +15208,7 @@
       <c r="E139" t="s">
         <v>813</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139">
         <v>2</v>
       </c>
       <c r="G139" t="s">
@@ -14907,7 +15250,7 @@
       <c r="E140" t="s">
         <v>814</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140">
         <v>2</v>
       </c>
       <c r="G140" t="s">
@@ -14949,7 +15292,7 @@
       <c r="E141" t="s">
         <v>815</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141">
         <v>2</v>
       </c>
       <c r="G141" t="s">
@@ -14991,7 +15334,7 @@
       <c r="E142" t="s">
         <v>340</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142">
         <v>2</v>
       </c>
       <c r="G142" t="s">
@@ -15033,7 +15376,7 @@
       <c r="E143" t="s">
         <v>820</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143">
         <v>2</v>
       </c>
       <c r="G143" t="s">
@@ -15075,7 +15418,7 @@
       <c r="E144" t="s">
         <v>751</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144">
         <v>2</v>
       </c>
       <c r="G144" t="s">
@@ -15117,7 +15460,7 @@
       <c r="E145" t="s">
         <v>823</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145">
         <v>2</v>
       </c>
       <c r="G145" t="s">
@@ -15159,7 +15502,7 @@
       <c r="E146" t="s">
         <v>521</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146">
         <v>2</v>
       </c>
       <c r="G146" t="s">
@@ -15201,7 +15544,7 @@
       <c r="E147" t="s">
         <v>824</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147">
         <v>2</v>
       </c>
       <c r="G147" t="s">
@@ -15243,7 +15586,7 @@
       <c r="E148" t="s">
         <v>825</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148">
         <v>2</v>
       </c>
       <c r="G148" t="s">
@@ -15285,7 +15628,7 @@
       <c r="E149" t="s">
         <v>826</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149">
         <v>2</v>
       </c>
       <c r="G149" t="s">
@@ -15327,7 +15670,7 @@
       <c r="E150" t="s">
         <v>827</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150">
         <v>2</v>
       </c>
       <c r="G150" t="s">
@@ -15369,7 +15712,7 @@
       <c r="E151" t="s">
         <v>831</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151">
         <v>0</v>
       </c>
       <c r="G151" t="s">
@@ -15411,7 +15754,7 @@
       <c r="E152" t="s">
         <v>835</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" t="s">
@@ -15453,7 +15796,7 @@
       <c r="E153" t="s">
         <v>839</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153">
         <v>0</v>
       </c>
       <c r="G153" t="s">
@@ -15495,7 +15838,7 @@
       <c r="E154" t="s">
         <v>840</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154">
         <v>0</v>
       </c>
       <c r="G154" t="s">
@@ -15537,7 +15880,7 @@
       <c r="E155" t="s">
         <v>844</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155">
         <v>0</v>
       </c>
       <c r="G155" t="s">
@@ -15579,7 +15922,7 @@
       <c r="E156" t="s">
         <v>845</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156">
         <v>13</v>
       </c>
       <c r="G156" t="s">
@@ -15621,7 +15964,7 @@
       <c r="E157" t="s">
         <v>846</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157">
         <v>12.5</v>
       </c>
       <c r="G157" t="s">
@@ -15663,7 +16006,7 @@
       <c r="E158" t="s">
         <v>849</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158">
         <v>7.5</v>
       </c>
       <c r="G158" t="s">
@@ -15705,7 +16048,7 @@
       <c r="E159" t="s">
         <v>853</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159">
         <v>6.5</v>
       </c>
       <c r="G159" t="s">
@@ -15747,7 +16090,7 @@
       <c r="E160" t="s">
         <v>854</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160">
         <v>2.5</v>
       </c>
       <c r="G160" t="s">
@@ -15789,7 +16132,7 @@
       <c r="E161" t="s">
         <v>857</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161">
         <v>2.5</v>
       </c>
       <c r="G161" t="s">
@@ -15831,7 +16174,7 @@
       <c r="E162" t="s">
         <v>858</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162">
         <v>2</v>
       </c>
       <c r="G162" t="s">
@@ -15854,6 +16197,3990 @@
       </c>
       <c r="M162" t="s">
         <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA5E3AE-C2B6-0241-839C-1002A23D2372}">
+  <dimension ref="A1:M95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>CLEMENTVictorien</v>
+      </c>
+      <c r="D2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F2">
+        <v>16.5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2.5</v>
+      </c>
+      <c r="J2">
+        <v>2.5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3.5</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>RAHMANIInes</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.5</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>BAILLIAJuliette</v>
+      </c>
+      <c r="D4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" t="s">
+        <v>860</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>DUPONTOmbeline</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>2.5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>VALENTINInes</v>
+      </c>
+      <c r="D6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E6" t="s">
+        <v>863</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>DE COSTEREliot</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3.5</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>798</v>
+      </c>
+      <c r="B8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>GONARDJohan</v>
+      </c>
+      <c r="D8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E8" t="s">
+        <v>865</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>LEGRANDJulien</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>866</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>GENTIENFlavie</v>
+      </c>
+      <c r="D10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2.5</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>HENINLou</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+      <c r="J11">
+        <v>2.5</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>3.5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>COLOMBSolane</v>
+      </c>
+      <c r="D12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>867</v>
+      </c>
+      <c r="F12">
+        <v>5.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>GEATJosselyn</v>
+      </c>
+      <c r="D13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13">
+        <v>17.5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.5</v>
+      </c>
+      <c r="K13">
+        <v>3.5</v>
+      </c>
+      <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B14" t="s">
+        <v>868</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOISSebastien</v>
+      </c>
+      <c r="D14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E14" t="s">
+        <v>870</v>
+      </c>
+      <c r="F14">
+        <v>7.5</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3.5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>ZENAIDIAlyssa</v>
+      </c>
+      <c r="D15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E15" t="s">
+        <v>871</v>
+      </c>
+      <c r="F15">
+        <v>6.5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15">
+        <v>2.5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>LEULLIETTERobin</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>872</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2.5</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>873</v>
+      </c>
+      <c r="B17" t="s">
+        <v>874</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>KIMOUIllary Marie-Madeleine Maguylle</v>
+      </c>
+      <c r="D17" t="s">
+        <v>875</v>
+      </c>
+      <c r="E17" t="s">
+        <v>876</v>
+      </c>
+      <c r="F17">
+        <v>6.5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2.5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>637</v>
+      </c>
+      <c r="B18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>TASSELElise</v>
+      </c>
+      <c r="D18" t="s">
+        <v>639</v>
+      </c>
+      <c r="E18" t="s">
+        <v>877</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2.5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3.5</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>RIBAULTCharlotte</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" t="s">
+        <v>878</v>
+      </c>
+      <c r="F19">
+        <v>12.5</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+      <c r="J19">
+        <v>2.5</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>631</v>
+      </c>
+      <c r="B20" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>SEPTIERNinon</v>
+      </c>
+      <c r="D20" t="s">
+        <v>633</v>
+      </c>
+      <c r="E20" t="s">
+        <v>879</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAMPIGNONLouise</v>
+      </c>
+      <c r="D21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" t="s">
+        <v>880</v>
+      </c>
+      <c r="F21">
+        <v>4.5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>LECERFNathan</v>
+      </c>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" t="s">
+        <v>881</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <v>2.5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>ROLLANDHeloise</v>
+      </c>
+      <c r="D23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" t="s">
+        <v>882</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2.5</v>
+      </c>
+      <c r="J23">
+        <v>2.5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>WROLYK-LHERMITTEHugo</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" t="s">
+        <v>883</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24">
+        <v>3.5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>BENATTOUMASara</v>
+      </c>
+      <c r="D25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" t="s">
+        <v>524</v>
+      </c>
+      <c r="F25">
+        <v>6.5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2.5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPARISVictor</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2.5</v>
+      </c>
+      <c r="J26">
+        <v>2.5</v>
+      </c>
+      <c r="K26">
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAZARENC RADIXZian</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>884</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2.5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>FONDMaxime</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2.5</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3.5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>SCHIEBERHortense</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>885</v>
+      </c>
+      <c r="F29">
+        <v>9.5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.5</v>
+      </c>
+      <c r="K29">
+        <v>3.5</v>
+      </c>
+      <c r="L29">
+        <v>3.5</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>MARTINGustav</v>
+      </c>
+      <c r="D30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E30" t="s">
+        <v>886</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.5</v>
+      </c>
+      <c r="K30">
+        <v>3.5</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>665</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>BARBIEREliot</v>
+      </c>
+      <c r="D31" t="s">
+        <v>666</v>
+      </c>
+      <c r="E31" t="s">
+        <v>887</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2.5</v>
+      </c>
+      <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>BARDINFelicie</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>888</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2.5</v>
+      </c>
+      <c r="K32">
+        <v>3.5</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>702</v>
+      </c>
+      <c r="B33" t="s">
+        <v>703</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPAQUITAugustin</v>
+      </c>
+      <c r="D33" t="s">
+        <v>704</v>
+      </c>
+      <c r="E33" t="s">
+        <v>889</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2.5</v>
+      </c>
+      <c r="J33">
+        <v>2.5</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>890</v>
+      </c>
+      <c r="B34" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>GAMBIERJuliette</v>
+      </c>
+      <c r="D34" t="s">
+        <v>891</v>
+      </c>
+      <c r="E34" t="s">
+        <v>892</v>
+      </c>
+      <c r="F34">
+        <v>6.5</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2.5</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>DEKEYSER-DESWARTERomain</v>
+      </c>
+      <c r="D35" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" t="s">
+        <v>893</v>
+      </c>
+      <c r="F35">
+        <v>12.5</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2.5</v>
+      </c>
+      <c r="J35">
+        <v>2.5</v>
+      </c>
+      <c r="K35">
+        <v>3.5</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>BRUCHETMathilde</v>
+      </c>
+      <c r="D36" t="s">
+        <v>396</v>
+      </c>
+      <c r="E36" t="s">
+        <v>894</v>
+      </c>
+      <c r="F36">
+        <v>6.5</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2.5</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>895</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>BERTEAUThomas</v>
+      </c>
+      <c r="D37" t="s">
+        <v>896</v>
+      </c>
+      <c r="E37" t="s">
+        <v>710</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2.5</v>
+      </c>
+      <c r="J37">
+        <v>2.5</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>DE LOYNESAnnonciade</v>
+      </c>
+      <c r="D38" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" t="s">
+        <v>613</v>
+      </c>
+      <c r="F38">
+        <v>4.5</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2.5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>DUDORETJules</v>
+      </c>
+      <c r="D39" t="s">
+        <v>468</v>
+      </c>
+      <c r="E39" t="s">
+        <v>897</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>898</v>
+      </c>
+      <c r="B40" t="s">
+        <v>899</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMPERSLucile</v>
+      </c>
+      <c r="D40" t="s">
+        <v>900</v>
+      </c>
+      <c r="E40" t="s">
+        <v>425</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2.5</v>
+      </c>
+      <c r="J40">
+        <v>2.5</v>
+      </c>
+      <c r="K40">
+        <v>3.5</v>
+      </c>
+      <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>901</v>
+      </c>
+      <c r="B41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>PORTEMANNathan</v>
+      </c>
+      <c r="D41" t="s">
+        <v>902</v>
+      </c>
+      <c r="E41" t="s">
+        <v>903</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.5</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>720</v>
+      </c>
+      <c r="B42" t="s">
+        <v>721</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>RANNOUAnnaelle</v>
+      </c>
+      <c r="D42" t="s">
+        <v>722</v>
+      </c>
+      <c r="E42" t="s">
+        <v>904</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.5</v>
+      </c>
+      <c r="K42">
+        <v>3.5</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>THEETTENHeloise</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2.5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3.5</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>695</v>
+      </c>
+      <c r="B44" t="s">
+        <v>696</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>DI FABIO-VALLETOscar</v>
+      </c>
+      <c r="D44" t="s">
+        <v>697</v>
+      </c>
+      <c r="E44" t="s">
+        <v>905</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>841</v>
+      </c>
+      <c r="B45" t="s">
+        <v>842</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>JOOSEloi</v>
+      </c>
+      <c r="D45" t="s">
+        <v>843</v>
+      </c>
+      <c r="E45" t="s">
+        <v>729</v>
+      </c>
+      <c r="F45">
+        <v>6.5</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2.5</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>413</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>PETITPaul</v>
+      </c>
+      <c r="D46" t="s">
+        <v>414</v>
+      </c>
+      <c r="E46" t="s">
+        <v>906</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2.5</v>
+      </c>
+      <c r="J46">
+        <v>2.5</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>685</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>JACQUESAlix</v>
+      </c>
+      <c r="D47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E47" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2.5</v>
+      </c>
+      <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>907</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>DUPUITAlban</v>
+      </c>
+      <c r="D48" t="s">
+        <v>908</v>
+      </c>
+      <c r="E48" t="s">
+        <v>909</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2.5</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>3.5</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>522</v>
+      </c>
+      <c r="B49" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D49" t="s">
+        <v>523</v>
+      </c>
+      <c r="E49" t="s">
+        <v>910</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>2.5</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>491</v>
+      </c>
+      <c r="B50" t="s">
+        <v>492</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>ALLARTAbigaelle</v>
+      </c>
+      <c r="D50" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" t="s">
+        <v>911</v>
+      </c>
+      <c r="F50">
+        <v>9.5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>3.5</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>HAJJARTheodore</v>
+      </c>
+      <c r="D51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" t="s">
+        <v>912</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2.5</v>
+      </c>
+      <c r="K51">
+        <v>3.5</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>ANSARTJulie</v>
+      </c>
+      <c r="D52" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" t="s">
+        <v>913</v>
+      </c>
+      <c r="F52">
+        <v>4.5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2.5</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>AUBERTLucie</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>914</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2.5</v>
+      </c>
+      <c r="K53">
+        <v>3.5</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B54" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>GREFFINPierre-Yves</v>
+      </c>
+      <c r="D54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54" t="s">
+        <v>915</v>
+      </c>
+      <c r="F54">
+        <v>5.5</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>3.5</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>PELEFrancois</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>916</v>
+      </c>
+      <c r="F55">
+        <v>8.5</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>2.5</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>515</v>
+      </c>
+      <c r="B56" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>PICAULTGregoire</v>
+      </c>
+      <c r="D56" t="s">
+        <v>516</v>
+      </c>
+      <c r="E56" t="s">
+        <v>917</v>
+      </c>
+      <c r="F56">
+        <v>10.5</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2.5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>646</v>
+      </c>
+      <c r="B57" t="s">
+        <v>547</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>LAURENTEliott</v>
+      </c>
+      <c r="D57" t="s">
+        <v>647</v>
+      </c>
+      <c r="E57" t="s">
+        <v>918</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2.5</v>
+      </c>
+      <c r="K57">
+        <v>3.5</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>507</v>
+      </c>
+      <c r="B58" t="s">
+        <v>508</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>THIREEmeline</v>
+      </c>
+      <c r="D58" t="s">
+        <v>509</v>
+      </c>
+      <c r="E58" t="s">
+        <v>919</v>
+      </c>
+      <c r="F58">
+        <v>4.5</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>2.5</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>920</v>
+      </c>
+      <c r="B59" t="s">
+        <v>921</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>ARNOULTEsteban</v>
+      </c>
+      <c r="D59" t="s">
+        <v>922</v>
+      </c>
+      <c r="E59" t="s">
+        <v>923</v>
+      </c>
+      <c r="F59">
+        <v>4.5</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2.5</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>717</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>VIEIRA-MARTINSThomas</v>
+      </c>
+      <c r="D60" t="s">
+        <v>718</v>
+      </c>
+      <c r="E60" t="s">
+        <v>619</v>
+      </c>
+      <c r="F60">
+        <v>5.5</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>3.5</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>706</v>
+      </c>
+      <c r="B61" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>COUTADEURMarie</v>
+      </c>
+      <c r="D61" t="s">
+        <v>707</v>
+      </c>
+      <c r="E61" t="s">
+        <v>924</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>2.5</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>3.5</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>925</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>LE CAMEloise</v>
+      </c>
+      <c r="D62" t="s">
+        <v>926</v>
+      </c>
+      <c r="E62" t="s">
+        <v>927</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2.5</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>3.5</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>675</v>
+      </c>
+      <c r="B63" t="s">
+        <v>478</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOISJuliette</v>
+      </c>
+      <c r="D63" t="s">
+        <v>676</v>
+      </c>
+      <c r="E63" t="s">
+        <v>928</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2.5</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>821</v>
+      </c>
+      <c r="B64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>HEUSSEVictorien</v>
+      </c>
+      <c r="D64" t="s">
+        <v>822</v>
+      </c>
+      <c r="E64" t="s">
+        <v>929</v>
+      </c>
+      <c r="F64">
+        <v>4.5</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2.5</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>433</v>
+      </c>
+      <c r="B65" t="s">
+        <v>434</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>FANSiying</v>
+      </c>
+      <c r="D65" t="s">
+        <v>435</v>
+      </c>
+      <c r="E65" t="s">
+        <v>930</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>CHOPINZelie</v>
+      </c>
+      <c r="D66" t="s">
+        <v>389</v>
+      </c>
+      <c r="E66" t="s">
+        <v>931</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>2.5</v>
+      </c>
+      <c r="J66">
+        <v>2.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>932</v>
+      </c>
+      <c r="B67" t="s">
+        <v>933</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C90" si="1">A67&amp;B67</f>
+        <v>LESAINGConstance</v>
+      </c>
+      <c r="D67" t="s">
+        <v>934</v>
+      </c>
+      <c r="E67" t="s">
+        <v>935</v>
+      </c>
+      <c r="F67">
+        <v>6.5</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2.5</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>464</v>
+      </c>
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>CARETTEHugo</v>
+      </c>
+      <c r="D68" t="s">
+        <v>465</v>
+      </c>
+      <c r="E68" t="s">
+        <v>936</v>
+      </c>
+      <c r="F68">
+        <v>7.5</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>3.5</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>937</v>
+      </c>
+      <c r="B69" t="s">
+        <v>938</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>ROUGEGREZTom</v>
+      </c>
+      <c r="D69" t="s">
+        <v>939</v>
+      </c>
+      <c r="E69" t="s">
+        <v>940</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>2.5</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>3.5</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>641</v>
+      </c>
+      <c r="B70" t="s">
+        <v>642</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>ZANG ATANGANAAnais</v>
+      </c>
+      <c r="D70" t="s">
+        <v>643</v>
+      </c>
+      <c r="E70" t="s">
+        <v>941</v>
+      </c>
+      <c r="F70">
+        <v>6.5</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>2.5</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>738</v>
+      </c>
+      <c r="B71" t="s">
+        <v>739</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D71" t="s">
+        <v>740</v>
+      </c>
+      <c r="E71" t="s">
+        <v>942</v>
+      </c>
+      <c r="F71">
+        <v>2.5</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2.5</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>MASSARTTitouan</v>
+      </c>
+      <c r="D72" t="s">
+        <v>489</v>
+      </c>
+      <c r="E72" t="s">
+        <v>943</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>2.5</v>
+      </c>
+      <c r="J72">
+        <v>2.5</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>768</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D73" t="s">
+        <v>769</v>
+      </c>
+      <c r="E73" t="s">
+        <v>944</v>
+      </c>
+      <c r="F73">
+        <v>8.5</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2.5</v>
+      </c>
+      <c r="J73">
+        <v>2.5</v>
+      </c>
+      <c r="K73">
+        <v>3.5</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>TAHROUCHHind</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>945</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2.5</v>
+      </c>
+      <c r="K74">
+        <v>3.5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" t="s">
+        <v>399</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>SEMBLATMarie</v>
+      </c>
+      <c r="D75" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" t="s">
+        <v>946</v>
+      </c>
+      <c r="F75">
+        <v>10.5</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2.5</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>DUBOTVictor</v>
+      </c>
+      <c r="D76" t="s">
+        <v>441</v>
+      </c>
+      <c r="E76" t="s">
+        <v>947</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>2.5</v>
+      </c>
+      <c r="J76">
+        <v>2.5</v>
+      </c>
+      <c r="K76">
+        <v>3.5</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>602</v>
+      </c>
+      <c r="B77" t="s">
+        <v>603</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>GONONYoan</v>
+      </c>
+      <c r="D77" t="s">
+        <v>604</v>
+      </c>
+      <c r="E77" t="s">
+        <v>948</v>
+      </c>
+      <c r="F77">
+        <v>10.5</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>2.5</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>CHALINMaxence</v>
+      </c>
+      <c r="D78" t="s">
+        <v>361</v>
+      </c>
+      <c r="E78" t="s">
+        <v>949</v>
+      </c>
+      <c r="F78">
+        <v>10.5</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>2.5</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" t="s">
+        <v>485</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>HEMERYCKErnest</v>
+      </c>
+      <c r="D79" t="s">
+        <v>486</v>
+      </c>
+      <c r="E79" t="s">
+        <v>950</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>BRACQMargot</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" t="s">
+        <v>951</v>
+      </c>
+      <c r="F80">
+        <v>12.5</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>2.5</v>
+      </c>
+      <c r="J80">
+        <v>2.5</v>
+      </c>
+      <c r="K80">
+        <v>3.5</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>681</v>
+      </c>
+      <c r="B81" t="s">
+        <v>682</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>DELAGNEAUAbygaelle</v>
+      </c>
+      <c r="D81" t="s">
+        <v>683</v>
+      </c>
+      <c r="E81" t="s">
+        <v>952</v>
+      </c>
+      <c r="F81">
+        <v>6.5</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2.5</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>VINCENTWandrille</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" t="s">
+        <v>953</v>
+      </c>
+      <c r="F82">
+        <v>9.5</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>954</v>
+      </c>
+      <c r="B83" t="s">
+        <v>955</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>TROLLERemi</v>
+      </c>
+      <c r="D83" t="s">
+        <v>956</v>
+      </c>
+      <c r="E83" t="s">
+        <v>957</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2.5</v>
+      </c>
+      <c r="K83">
+        <v>3.5</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>518</v>
+      </c>
+      <c r="B84" t="s">
+        <v>519</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>MARANTAlix</v>
+      </c>
+      <c r="D84" t="s">
+        <v>520</v>
+      </c>
+      <c r="E84" t="s">
+        <v>958</v>
+      </c>
+      <c r="F84">
+        <v>10.5</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>2.5</v>
+      </c>
+      <c r="J84">
+        <v>2.5</v>
+      </c>
+      <c r="K84">
+        <v>3.5</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>959</v>
+      </c>
+      <c r="B85" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>FAUCHERMartin</v>
+      </c>
+      <c r="D85" t="s">
+        <v>960</v>
+      </c>
+      <c r="E85" t="s">
+        <v>961</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>2.5</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>3.5</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>756</v>
+      </c>
+      <c r="B86" t="s">
+        <v>757</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSTYNMaewan</v>
+      </c>
+      <c r="D86" t="s">
+        <v>758</v>
+      </c>
+      <c r="E86" t="s">
+        <v>962</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>49</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>963</v>
+      </c>
+      <c r="B87" t="s">
+        <v>964</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D87" t="s">
+        <v>965</v>
+      </c>
+      <c r="E87" t="s">
+        <v>945</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" t="s">
+        <v>49</v>
+      </c>
+      <c r="L87" t="s">
+        <v>49</v>
+      </c>
+      <c r="M87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>772</v>
+      </c>
+      <c r="B88" t="s">
+        <v>448</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMANDValentin</v>
+      </c>
+      <c r="D88" t="s">
+        <v>773</v>
+      </c>
+      <c r="E88" t="s">
+        <v>966</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>789</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D89" t="s">
+        <v>790</v>
+      </c>
+      <c r="E89" t="s">
+        <v>967</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>3.5</v>
+      </c>
+      <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>711</v>
+      </c>
+      <c r="B90" t="s">
+        <v>712</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>MERCIERMax</v>
+      </c>
+      <c r="D90" t="s">
+        <v>713</v>
+      </c>
+      <c r="E90" t="s">
+        <v>767</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>546</v>
+      </c>
+      <c r="B91" t="s">
+        <v>547</v>
+      </c>
+      <c r="C91" t="s">
+        <v>548</v>
+      </c>
+      <c r="E91" t="s">
+        <v>968</v>
+      </c>
+      <c r="F91">
+        <v>7.5</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>3.5</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" t="s">
+        <v>541</v>
+      </c>
+      <c r="E92" t="s">
+        <v>969</v>
+      </c>
+      <c r="F92">
+        <v>4.5</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>2.5</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>850</v>
+      </c>
+      <c r="B93" t="s">
+        <v>851</v>
+      </c>
+      <c r="C93" t="s">
+        <v>852</v>
+      </c>
+      <c r="E93" t="s">
+        <v>970</v>
+      </c>
+      <c r="F93">
+        <v>6.5</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>2.5</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>543</v>
+      </c>
+      <c r="B94" t="s">
+        <v>406</v>
+      </c>
+      <c r="C94" t="s">
+        <v>544</v>
+      </c>
+      <c r="E94" t="s">
+        <v>971</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>855</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" t="s">
+        <v>856</v>
+      </c>
+      <c r="E95" t="s">
+        <v>972</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
